--- a/Deler.xlsx
+++ b/Deler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iver Andreas Ugelvik\Desktop\Vortex\Power Distribution Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF323D7-5355-44CA-8ED6-3421DADB9B41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C62A9-4797-4976-BC68-BF69C5C021A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{36E49184-61F1-4040-974D-58C97BFC9560}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>PDB deler</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>ESC</t>
-  </si>
-  <si>
     <t>Annet</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>VannlekasjePads</t>
   </si>
   <si>
-    <t>Motorkontroll</t>
-  </si>
-  <si>
     <t>ESC tilkobling</t>
   </si>
   <si>
@@ -120,12 +114,6 @@
   </si>
   <si>
     <t>Finner passende til skruene når disse bestilles</t>
-  </si>
-  <si>
-    <t>https://www.getfpv.com/lumenier-blheli-s-35a-4-in-1-opto-esc.html</t>
-  </si>
-  <si>
-    <t>Gjenbruk? (ikke nødvendigvis rett link)</t>
   </si>
   <si>
     <t>Ring connector</t>
@@ -515,7 +503,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,181 +526,164 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
